--- a/static/files/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/static/files/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\prueva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86C1B60-AB69-4835-A9B1-60E1E092F170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85351120-D6C1-4F44-8E74-7869972F0638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,13 +117,13 @@
     <t>urb. El Ingeniero2</t>
   </si>
   <si>
-    <t>201VP00021</t>
-  </si>
-  <si>
     <t>201VP00022</t>
   </si>
   <si>
-    <t>201VP00027</t>
+    <t>201VP00023</t>
+  </si>
+  <si>
+    <t>201VP00026</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/files/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/static/files/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\prueva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zarca\OneDrive\Escritorio\CLONACION\PractiSoft\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85351120-D6C1-4F44-8E74-7869972F0638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C115290-5B6E-4C5E-9478-934B71A89649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -460,28 +460,28 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -613,7 +613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
